--- a/app/src/main/assets/jiedaofuwuzhan.xlsx
+++ b/app/src/main/assets/jiedaofuwuzhan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miku/project/Map/app/src/main/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\奔雷手文泰来\Desktop\Map\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34D9D71-79AC-9947-982D-483E4476BEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8AA336-7740-4E42-923D-68E9B006FE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15160" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11544" yWindow="2004" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="111">
   <si>
     <t>name</t>
   </si>
@@ -285,13 +285,131 @@
   <si>
     <t>service</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>headname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张娜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘寅芳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项怡</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭静</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>李影</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈迪</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐桂红</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿悦</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕文渊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>王冬梅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱佳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>马国清</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>田笑雨</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐艳丽</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭建桥</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨然</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>王宁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋延辉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周凯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>李齐</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫萌</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>82469318-864</t>
+  </si>
+  <si>
+    <t>武东霏</t>
+  </si>
+  <si>
+    <t>佟凯亭</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>董</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷玉娇</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴丹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +434,33 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -356,13 +501,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,19 +862,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.83203125" customWidth="1"/>
-    <col min="6" max="6" width="68.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" customWidth="1"/>
+    <col min="6" max="6" width="68.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,8 +888,14 @@
       <c r="F1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -747,8 +914,14 @@
       <c r="F2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>51701006</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -759,16 +932,22 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>118.157944</v>
+        <v>116.339179</v>
       </c>
       <c r="E3">
-        <v>39.623089</v>
+        <v>39.958039999999997</v>
       </c>
       <c r="F3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>62130974</v>
+      </c>
+      <c r="H3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -787,8 +966,14 @@
       <c r="F4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>88440599</v>
+      </c>
+      <c r="H4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -804,9 +989,17 @@
       <c r="E5">
         <v>39.931545</v>
       </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5">
+        <v>52812732</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -825,8 +1018,14 @@
       <c r="F6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="6">
+        <v>82605582</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -845,8 +1044,14 @@
       <c r="F7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="6">
+        <v>68179669</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -865,8 +1070,14 @@
       <c r="F8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="6">
+        <v>82781141</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -885,8 +1096,14 @@
       <c r="F9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="6">
+        <v>68712452</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -905,8 +1122,14 @@
       <c r="F10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="6">
+        <v>62909272</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -925,8 +1148,14 @@
       <c r="F11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="5">
+        <v>68160464</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -945,8 +1174,14 @@
       <c r="F12" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="6">
+        <v>62863452</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -965,8 +1200,14 @@
       <c r="F13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="4">
+        <v>88197331</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -985,8 +1226,14 @@
       <c r="F14" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="6">
+        <v>62542656</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1005,8 +1252,14 @@
       <c r="F15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="6">
+        <v>62810812</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1025,8 +1278,14 @@
       <c r="F16" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="6">
+        <v>62928692</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1045,8 +1304,14 @@
       <c r="F17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="6">
+        <v>82403944</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1065,8 +1330,14 @@
       <c r="F18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="6">
+        <v>62320159</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1085,8 +1356,14 @@
       <c r="F19" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="6">
+        <v>62632952</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1102,11 +1379,17 @@
       <c r="E20">
         <v>39.994430999999999</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="6">
+        <v>82617600</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1122,9 +1405,17 @@
       <c r="E21">
         <v>40.048760000000001</v>
       </c>
-      <c r="F21"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="6">
+        <v>62458789</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1140,9 +1431,17 @@
       <c r="E22">
         <v>39.950994000000001</v>
       </c>
-      <c r="F22"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="6">
+        <v>82418615</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1158,11 +1457,17 @@
       <c r="E23">
         <v>39.965662999999999</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="6">
+        <v>88898400</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1181,8 +1486,14 @@
       <c r="F24" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1198,9 +1509,17 @@
       <c r="E25">
         <v>39.977792999999998</v>
       </c>
-      <c r="F25"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="6">
+        <v>62380677</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1219,8 +1538,14 @@
       <c r="F26" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="6">
+        <v>62986632</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1239,8 +1564,14 @@
       <c r="F27" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="6">
+        <v>62406984</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1259,38 +1590,44 @@
       <c r="F28" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="6">
+        <v>88229858</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F29"/>
     </row>
-    <row r="34" spans="6:6">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34"/>
     </row>
-    <row r="35" spans="6:6">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35"/>
     </row>
-    <row r="36" spans="6:6">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36"/>
     </row>
-    <row r="37" spans="6:6">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F37"/>
     </row>
-    <row r="38" spans="6:6">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38"/>
     </row>
-    <row r="39" spans="6:6">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F39"/>
     </row>
-    <row r="40" spans="6:6">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F40"/>
     </row>
-    <row r="41" spans="6:6">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F41"/>
     </row>
-    <row r="42" spans="6:6">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F42"/>
     </row>
-    <row r="43" spans="6:6">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F43"/>
     </row>
   </sheetData>
